--- a/outcome/simulate data/B_HFRS.xlsx
+++ b/outcome/simulate data/B_HFRS.xlsx
@@ -412,19 +412,19 @@
         <v>44713</v>
       </c>
       <c r="B2" t="n">
-        <v>992.085116279464</v>
+        <v>1004.4243633895</v>
       </c>
       <c r="C2" t="n">
-        <v>581.707540785229</v>
+        <v>644.607513059281</v>
       </c>
       <c r="D2" t="n">
-        <v>364.466774843655</v>
+        <v>454.131978253849</v>
       </c>
       <c r="E2" t="n">
-        <v>1402.4626917737</v>
+        <v>1364.24121371972</v>
       </c>
       <c r="F2" t="n">
-        <v>1619.70345771527</v>
+        <v>1554.71674852515</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>44713</v>
@@ -450,19 +450,19 @@
         <v>44743</v>
       </c>
       <c r="B3" t="n">
-        <v>646.100735843271</v>
+        <v>686.342287969365</v>
       </c>
       <c r="C3" t="n">
-        <v>235.605486531539</v>
+        <v>326.1348956553</v>
       </c>
       <c r="D3" t="n">
-        <v>18.3024278338034</v>
+        <v>135.452620411867</v>
       </c>
       <c r="E3" t="n">
-        <v>1056.595985155</v>
+        <v>1046.54968028343</v>
       </c>
       <c r="F3" t="n">
-        <v>1273.89904385274</v>
+        <v>1237.23195552686</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>44743</v>
@@ -488,19 +488,19 @@
         <v>44774</v>
       </c>
       <c r="B4" t="n">
-        <v>408.571018615901</v>
+        <v>422.065549246176</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.98779850570605</v>
+        <v>61.5871098170832</v>
       </c>
       <c r="D4" t="n">
-        <v>-219.3245079693</v>
+        <v>-129.238649101851</v>
       </c>
       <c r="E4" t="n">
-        <v>819.129835737509</v>
+        <v>782.543988675269</v>
       </c>
       <c r="F4" t="n">
-        <v>1036.4665452011</v>
+        <v>973.369747594203</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>44774</v>
@@ -526,19 +526,19 @@
         <v>44805</v>
       </c>
       <c r="B5" t="n">
-        <v>407.278829451392</v>
+        <v>370.983533277689</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.30962934187647</v>
+        <v>10.3883958763591</v>
       </c>
       <c r="D5" t="n">
-        <v>-220.662030158605</v>
+        <v>-180.49913921746</v>
       </c>
       <c r="E5" t="n">
-        <v>817.86728824466</v>
+        <v>731.578670679018</v>
       </c>
       <c r="F5" t="n">
-        <v>1035.21968906139</v>
+        <v>922.466205772837</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>44805</v>
@@ -564,19 +564,19 @@
         <v>44835</v>
       </c>
       <c r="B6" t="n">
-        <v>948.090558937854</v>
+        <v>850.210726806071</v>
       </c>
       <c r="C6" t="n">
-        <v>537.488824164299</v>
+        <v>489.565212472355</v>
       </c>
       <c r="D6" t="n">
-        <v>320.129395468128</v>
+        <v>298.65100944142</v>
       </c>
       <c r="E6" t="n">
-        <v>1358.69229371141</v>
+        <v>1210.85624113979</v>
       </c>
       <c r="F6" t="n">
-        <v>1576.05172240758</v>
+        <v>1401.77044417072</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>44835</v>
@@ -602,19 +602,19 @@
         <v>44866</v>
       </c>
       <c r="B7" t="n">
-        <v>1822.11420664847</v>
+        <v>1791.04168504256</v>
       </c>
       <c r="C7" t="n">
-        <v>1411.50887092454</v>
+        <v>1430.36052661259</v>
       </c>
       <c r="D7" t="n">
-        <v>1194.14753600039</v>
+        <v>1239.42745473688</v>
       </c>
       <c r="E7" t="n">
-        <v>2232.7195423724</v>
+        <v>2151.72284347253</v>
       </c>
       <c r="F7" t="n">
-        <v>2450.08087729656</v>
+        <v>2342.65591534824</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>44866</v>
@@ -640,19 +640,19 @@
         <v>44896</v>
       </c>
       <c r="B8" t="n">
-        <v>1487.8110979262</v>
+        <v>1488.65484354598</v>
       </c>
       <c r="C8" t="n">
-        <v>1077.21094607802</v>
+        <v>1127.94172526601</v>
       </c>
       <c r="D8" t="n">
-        <v>859.852355331928</v>
+        <v>936.991734867684</v>
       </c>
       <c r="E8" t="n">
-        <v>1898.41124977438</v>
+        <v>1849.36796182594</v>
       </c>
       <c r="F8" t="n">
-        <v>2115.76984052047</v>
+        <v>2040.31795222427</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>44896</v>
@@ -678,19 +678,19 @@
         <v>44927</v>
       </c>
       <c r="B9" t="n">
-        <v>982.677522311919</v>
+        <v>999.412614479879</v>
       </c>
       <c r="C9" t="n">
-        <v>567.366750700755</v>
+        <v>633.788645055452</v>
       </c>
       <c r="D9" t="n">
-        <v>347.514508482264</v>
+        <v>440.239007094112</v>
       </c>
       <c r="E9" t="n">
-        <v>1397.98829392308</v>
+        <v>1365.03658390431</v>
       </c>
       <c r="F9" t="n">
-        <v>1617.84053614157</v>
+        <v>1558.58622186565</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>44927</v>
@@ -716,19 +716,19 @@
         <v>44958</v>
       </c>
       <c r="B10" t="n">
-        <v>719.534105745679</v>
+        <v>664.534833974406</v>
       </c>
       <c r="C10" t="n">
-        <v>298.240740593387</v>
+        <v>293.701299937284</v>
       </c>
       <c r="D10" t="n">
-        <v>75.2215046578873</v>
+        <v>97.393885054725</v>
       </c>
       <c r="E10" t="n">
-        <v>1140.82747089797</v>
+        <v>1035.36836801153</v>
       </c>
       <c r="F10" t="n">
-        <v>1363.84670683347</v>
+        <v>1231.67578289409</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>44958</v>
@@ -754,19 +754,19 @@
         <v>44986</v>
       </c>
       <c r="B11" t="n">
-        <v>790.353204939769</v>
+        <v>755.394672793255</v>
       </c>
       <c r="C11" t="n">
-        <v>366.57221835091</v>
+        <v>382.512883161406</v>
       </c>
       <c r="D11" t="n">
-        <v>142.236115172842</v>
+        <v>185.121187263475</v>
       </c>
       <c r="E11" t="n">
-        <v>1214.13419152863</v>
+        <v>1128.2764624251</v>
       </c>
       <c r="F11" t="n">
-        <v>1438.4702947067</v>
+        <v>1325.66815832303</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>44986</v>
@@ -792,19 +792,19 @@
         <v>45017</v>
       </c>
       <c r="B12" t="n">
-        <v>789.318581343879</v>
+        <v>754.536001140546</v>
       </c>
       <c r="C12" t="n">
-        <v>364.85307504825</v>
+        <v>381.314745230097</v>
       </c>
       <c r="D12" t="n">
-        <v>140.154609026108</v>
+        <v>183.743346739291</v>
       </c>
       <c r="E12" t="n">
-        <v>1213.78408763951</v>
+        <v>1127.757257051</v>
       </c>
       <c r="F12" t="n">
-        <v>1438.48255366165</v>
+        <v>1325.3286555418</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>45017</v>
@@ -830,19 +830,19 @@
         <v>45047</v>
       </c>
       <c r="B13" t="n">
-        <v>1039.77555001808</v>
+        <v>1016.33285951828</v>
       </c>
       <c r="C13" t="n">
-        <v>615.048588638411</v>
+        <v>642.974740281602</v>
       </c>
       <c r="D13" t="n">
-        <v>390.21171665525</v>
+        <v>445.330890722327</v>
       </c>
       <c r="E13" t="n">
-        <v>1464.50251139775</v>
+        <v>1389.69097875496</v>
       </c>
       <c r="F13" t="n">
-        <v>1689.33938338091</v>
+        <v>1587.33482831424</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>45047</v>
@@ -868,19 +868,19 @@
         <v>45078</v>
       </c>
       <c r="B14" t="n">
-        <v>992.085111078039</v>
+        <v>1004.5974042017</v>
       </c>
       <c r="C14" t="n">
-        <v>567.188189329273</v>
+        <v>630.976388502244</v>
       </c>
       <c r="D14" t="n">
-        <v>342.261345761487</v>
+        <v>433.193369962138</v>
       </c>
       <c r="E14" t="n">
-        <v>1416.98203282681</v>
+        <v>1378.21841990117</v>
       </c>
       <c r="F14" t="n">
-        <v>1641.90887639459</v>
+        <v>1576.00143844127</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>45078</v>
@@ -906,19 +906,19 @@
         <v>45108</v>
       </c>
       <c r="B15" t="n">
-        <v>646.100732100212</v>
+        <v>686.486805490927</v>
       </c>
       <c r="C15" t="n">
-        <v>221.090156588172</v>
+        <v>312.49995977793</v>
       </c>
       <c r="D15" t="n">
-        <v>-3.89685164761772</v>
+        <v>114.523282526699</v>
       </c>
       <c r="E15" t="n">
-        <v>1071.11130761225</v>
+        <v>1060.47365120392</v>
       </c>
       <c r="F15" t="n">
-        <v>1296.09831584804</v>
+        <v>1258.45032845516</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>45108</v>
@@ -944,19 +944,19 @@
         <v>45139</v>
       </c>
       <c r="B16" t="n">
-        <v>408.571015922313</v>
+        <v>422.185919838905</v>
       </c>
       <c r="C16" t="n">
-        <v>-16.5009566629667</v>
+        <v>47.944994683636</v>
       </c>
       <c r="D16" t="n">
-        <v>-241.520466546054</v>
+        <v>-150.166184099709</v>
       </c>
       <c r="E16" t="n">
-        <v>833.642988507594</v>
+        <v>796.426844994174</v>
       </c>
       <c r="F16" t="n">
-        <v>1058.66249839068</v>
+        <v>994.538023777519</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>45139</v>
@@ -982,19 +982,19 @@
         <v>45170</v>
       </c>
       <c r="B17" t="n">
-        <v>407.278827513027</v>
+        <v>371.082277345578</v>
       </c>
       <c r="C17" t="n">
-        <v>-17.8217747465943</v>
+        <v>-3.26730178186887</v>
       </c>
       <c r="D17" t="n">
-        <v>-242.856440263795</v>
+        <v>-201.435998503688</v>
       </c>
       <c r="E17" t="n">
-        <v>832.379429772648</v>
+        <v>745.431856473026</v>
       </c>
       <c r="F17" t="n">
-        <v>1057.41409528985</v>
+        <v>943.600553194845</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>45170</v>
@@ -1020,19 +1020,19 @@
         <v>45200</v>
       </c>
       <c r="B18" t="n">
-        <v>948.090557542964</v>
+        <v>850.290969874023</v>
       </c>
       <c r="C18" t="n">
-        <v>522.977132514583</v>
+        <v>475.894900845043</v>
       </c>
       <c r="D18" t="n">
-        <v>297.935679033631</v>
+        <v>277.701593855946</v>
       </c>
       <c r="E18" t="n">
-        <v>1373.20398257135</v>
+        <v>1224.687038903</v>
       </c>
       <c r="F18" t="n">
-        <v>1598.2454360523</v>
+        <v>1422.8803458921</v>
       </c>
       <c r="G18" s="1" t="n">
         <v>45200</v>
@@ -1058,19 +1058,19 @@
         <v>45231</v>
       </c>
       <c r="B19" t="n">
-        <v>1822.11420564468</v>
+        <v>1791.10715568691</v>
       </c>
       <c r="C19" t="n">
-        <v>1396.99730259134</v>
+        <v>1416.67819733676</v>
       </c>
       <c r="D19" t="n">
-        <v>1171.9540079552</v>
+        <v>1218.46747979273</v>
       </c>
       <c r="E19" t="n">
-        <v>2247.23110869801</v>
+        <v>2165.53611403705</v>
       </c>
       <c r="F19" t="n">
-        <v>2472.27440333416</v>
+        <v>2363.74683158108</v>
       </c>
       <c r="G19" s="1" t="n">
         <v>45231</v>
@@ -1096,19 +1096,19 @@
         <v>45261</v>
       </c>
       <c r="B20" t="n">
-        <v>1487.81109720385</v>
+        <v>1488.70879194322</v>
       </c>
       <c r="C20" t="n">
-        <v>1062.69920107234</v>
+        <v>1114.25022351065</v>
       </c>
       <c r="D20" t="n">
-        <v>837.658556940499</v>
+        <v>916.023831335817</v>
       </c>
       <c r="E20" t="n">
-        <v>1912.92299333536</v>
+        <v>1863.16736037579</v>
       </c>
       <c r="F20" t="n">
-        <v>2137.9636374672</v>
+        <v>2061.39375255063</v>
       </c>
       <c r="G20" s="1" t="n">
         <v>45261</v>
@@ -1134,19 +1134,19 @@
         <v>45292</v>
       </c>
       <c r="B21" t="n">
-        <v>982.677521792099</v>
+        <v>999.457258323452</v>
       </c>
       <c r="C21" t="n">
-        <v>553.014076169967</v>
+        <v>620.276970171488</v>
       </c>
       <c r="D21" t="n">
-        <v>325.563987281376</v>
+        <v>419.551050562276</v>
       </c>
       <c r="E21" t="n">
-        <v>1412.34096741423</v>
+        <v>1378.63754647542</v>
       </c>
       <c r="F21" t="n">
-        <v>1639.79105630282</v>
+        <v>1579.36346608463</v>
       </c>
       <c r="G21" s="1" t="n">
         <v>45292</v>
@@ -1172,19 +1172,19 @@
         <v>45323</v>
       </c>
       <c r="B22" t="n">
-        <v>719.534105371605</v>
+        <v>664.571631177693</v>
       </c>
       <c r="C22" t="n">
-        <v>284.085211733645</v>
+        <v>280.374901411164</v>
       </c>
       <c r="D22" t="n">
-        <v>53.5724916650736</v>
+        <v>76.9934380205029</v>
       </c>
       <c r="E22" t="n">
-        <v>1154.98299900956</v>
+        <v>1048.76836094422</v>
       </c>
       <c r="F22" t="n">
-        <v>1385.49571907814</v>
+        <v>1252.14982433488</v>
       </c>
       <c r="G22" s="1" t="n">
         <v>45323</v>
@@ -1210,19 +1210,19 @@
         <v>45352</v>
       </c>
       <c r="B23" t="n">
-        <v>790.353204670577</v>
+        <v>755.424821982927</v>
       </c>
       <c r="C23" t="n">
-        <v>352.497104992293</v>
+        <v>369.255527583603</v>
       </c>
       <c r="D23" t="n">
-        <v>120.710087020505</v>
+        <v>164.82985155247</v>
       </c>
       <c r="E23" t="n">
-        <v>1228.20930434886</v>
+        <v>1141.59411638225</v>
       </c>
       <c r="F23" t="n">
-        <v>1459.99632232065</v>
+        <v>1346.01979241338</v>
       </c>
       <c r="G23" s="1" t="n">
         <v>45352</v>
@@ -1248,19 +1248,19 @@
         <v>45383</v>
       </c>
       <c r="B24" t="n">
-        <v>789.318581150163</v>
+        <v>754.560665061122</v>
       </c>
       <c r="C24" t="n">
-        <v>350.799932220295</v>
+        <v>368.065190847319</v>
       </c>
       <c r="D24" t="n">
-        <v>118.662181860864</v>
+        <v>163.466845652558</v>
       </c>
       <c r="E24" t="n">
-        <v>1227.83723008003</v>
+        <v>1141.05613927492</v>
       </c>
       <c r="F24" t="n">
-        <v>1459.97498043946</v>
+        <v>1345.65448446969</v>
       </c>
       <c r="G24" s="1" t="n">
         <v>45383</v>
@@ -1286,19 +1286,19 @@
         <v>45413</v>
       </c>
       <c r="B25" t="n">
-        <v>1039.77554987868</v>
+        <v>1016.353100542</v>
       </c>
       <c r="C25" t="n">
-        <v>601.003819768063</v>
+        <v>629.726305867644</v>
       </c>
       <c r="D25" t="n">
-        <v>368.732096324248</v>
+        <v>425.058443820262</v>
       </c>
       <c r="E25" t="n">
-        <v>1478.5472799893</v>
+        <v>1402.97989521636</v>
       </c>
       <c r="F25" t="n">
-        <v>1710.81900343311</v>
+        <v>1607.64775726374</v>
       </c>
       <c r="G25" s="1" t="n">
         <v>45413</v>
@@ -1324,19 +1324,19 @@
         <v>45444</v>
       </c>
       <c r="B26" t="n">
-        <v>992.085110977722</v>
+        <v>1004.61407312879</v>
       </c>
       <c r="C26" t="n">
-        <v>553.148858736829</v>
+        <v>617.734359108302</v>
       </c>
       <c r="D26" t="n">
-        <v>320.790042538123</v>
+        <v>412.932609646607</v>
       </c>
       <c r="E26" t="n">
-        <v>1431.02136321862</v>
+        <v>1391.49378714928</v>
       </c>
       <c r="F26" t="n">
-        <v>1663.38017941732</v>
+        <v>1596.29553661097</v>
       </c>
       <c r="G26" s="1" t="n">
         <v>45444</v>
@@ -1362,19 +1362,19 @@
         <v>45474</v>
       </c>
       <c r="B27" t="n">
-        <v>646.100732028022</v>
+        <v>686.500535899326</v>
       </c>
       <c r="C27" t="n">
-        <v>207.054460302879</v>
+        <v>299.268447349916</v>
       </c>
       <c r="D27" t="n">
-        <v>-25.3625966927277</v>
+        <v>94.2801620803878</v>
       </c>
       <c r="E27" t="n">
-        <v>1085.14700375316</v>
+        <v>1073.73262444874</v>
       </c>
       <c r="F27" t="n">
-        <v>1317.56406074877</v>
+        <v>1278.72090971826</v>
       </c>
       <c r="G27" s="1" t="n">
         <v>45474</v>
@@ -1400,19 +1400,19 @@
         <v>45505</v>
       </c>
       <c r="B28" t="n">
-        <v>408.571015870364</v>
+        <v>422.197203541117</v>
       </c>
       <c r="C28" t="n">
-        <v>-30.5346904187566</v>
+        <v>34.7203569449675</v>
       </c>
       <c r="D28" t="n">
-        <v>-262.983210172011</v>
+        <v>-170.397495407947</v>
       </c>
       <c r="E28" t="n">
-        <v>847.676722159484</v>
+        <v>809.674050137266</v>
       </c>
       <c r="F28" t="n">
-        <v>1080.12524191274</v>
+        <v>1014.79190249018</v>
       </c>
       <c r="G28" s="1" t="n">
         <v>45505</v>
@@ -1438,19 +1438,19 @@
         <v>45536</v>
       </c>
       <c r="B29" t="n">
-        <v>407.278827475643</v>
+        <v>371.091532972557</v>
       </c>
       <c r="C29" t="n">
-        <v>-31.8545935473408</v>
+        <v>-16.4899150688844</v>
       </c>
       <c r="D29" t="n">
-        <v>-264.317784594477</v>
+        <v>-221.663140082126</v>
       </c>
       <c r="E29" t="n">
-        <v>846.412248498626</v>
+        <v>758.672981013999</v>
       </c>
       <c r="F29" t="n">
-        <v>1078.87543954576</v>
+        <v>963.846206027241</v>
       </c>
       <c r="G29" s="1" t="n">
         <v>45536</v>
@@ -1476,19 +1476,19 @@
         <v>45566</v>
       </c>
       <c r="B30" t="n">
-        <v>948.090557516062</v>
+        <v>850.298564175884</v>
       </c>
       <c r="C30" t="n">
-        <v>508.944723473334</v>
+        <v>462.672397550418</v>
       </c>
       <c r="D30" t="n">
-        <v>276.474961370472</v>
+        <v>257.475499948747</v>
       </c>
       <c r="E30" t="n">
-        <v>1387.23639155879</v>
+        <v>1237.92473080135</v>
       </c>
       <c r="F30" t="n">
-        <v>1619.70615366165</v>
+        <v>1443.12162840302</v>
       </c>
       <c r="G30" s="1" t="n">
         <v>45566</v>
@@ -1514,19 +1514,19 @@
         <v>45597</v>
       </c>
       <c r="B31" t="n">
-        <v>1822.11420562532</v>
+        <v>1791.11339666946</v>
       </c>
       <c r="C31" t="n">
-        <v>1382.96500469321</v>
+        <v>1403.45559351806</v>
       </c>
       <c r="D31" t="n">
-        <v>1150.49346026677</v>
+        <v>1198.24194855119</v>
       </c>
       <c r="E31" t="n">
-        <v>2261.26340655743</v>
+        <v>2178.77119982086</v>
       </c>
       <c r="F31" t="n">
-        <v>2493.73495098387</v>
+        <v>2383.98484478772</v>
       </c>
       <c r="G31" s="1" t="n">
         <v>45597</v>
@@ -1552,19 +1552,19 @@
         <v>45627</v>
       </c>
       <c r="B32" t="n">
-        <v>1487.81109718992</v>
+        <v>1488.71392559915</v>
       </c>
       <c r="C32" t="n">
-        <v>1048.66674318984</v>
+        <v>1101.02762892764</v>
       </c>
       <c r="D32" t="n">
-        <v>816.197764574232</v>
+        <v>895.798900402363</v>
       </c>
       <c r="E32" t="n">
-        <v>1926.95545118999</v>
+        <v>1876.40022227065</v>
       </c>
       <c r="F32" t="n">
-        <v>2159.4244298056</v>
+        <v>2081.62895079593</v>
       </c>
       <c r="G32" s="1" t="n">
         <v>45627</v>
@@ -1590,19 +1590,19 @@
         <v>45658</v>
       </c>
       <c r="B33" t="n">
-        <v>982.677521782073</v>
+        <v>999.461479248237</v>
       </c>
       <c r="C33" t="n">
-        <v>539.125590301002</v>
+        <v>607.213679984496</v>
       </c>
       <c r="D33" t="n">
-        <v>304.323381106786</v>
+        <v>399.570237848732</v>
       </c>
       <c r="E33" t="n">
-        <v>1426.22945326314</v>
+        <v>1391.70927851198</v>
       </c>
       <c r="F33" t="n">
-        <v>1661.03166245736</v>
+        <v>1599.35272064774</v>
       </c>
       <c r="G33" s="1" t="n">
         <v>45658</v>
@@ -1628,19 +1628,19 @@
         <v>45689</v>
       </c>
       <c r="B34" t="n">
-        <v>719.53410536439</v>
+        <v>664.575098166013</v>
       </c>
       <c r="C34" t="n">
-        <v>270.375582806388</v>
+        <v>267.476759088327</v>
       </c>
       <c r="D34" t="n">
-        <v>32.6054235763853</v>
+        <v>57.2655962793705</v>
       </c>
       <c r="E34" t="n">
-        <v>1168.69262792239</v>
+        <v>1061.6734372437</v>
       </c>
       <c r="F34" t="n">
-        <v>1406.4627871524</v>
+        <v>1271.88460005266</v>
       </c>
       <c r="G34" s="1" t="n">
         <v>45689</v>
@@ -1666,19 +1666,19 @@
         <v>45717</v>
       </c>
       <c r="B35" t="n">
-        <v>790.353204665386</v>
+        <v>755.427668511491</v>
       </c>
       <c r="C35" t="n">
-        <v>338.860565255728</v>
+        <v>356.420983249699</v>
       </c>
       <c r="D35" t="n">
-        <v>99.85479920184</v>
+        <v>145.199602993512</v>
       </c>
       <c r="E35" t="n">
-        <v>1241.84584407504</v>
+        <v>1154.43435377328</v>
       </c>
       <c r="F35" t="n">
-        <v>1480.85161012893</v>
+        <v>1365.65573402947</v>
       </c>
       <c r="G35" s="1" t="n">
         <v>45717</v>
@@ -1704,19 +1704,19 @@
         <v>45748</v>
       </c>
       <c r="B36" t="n">
-        <v>789.318581146427</v>
+        <v>754.563003145283</v>
       </c>
       <c r="C36" t="n">
-        <v>337.183374737144</v>
+        <v>355.240771779134</v>
       </c>
       <c r="D36" t="n">
-        <v>97.8374542608326</v>
+        <v>143.852351505426</v>
       </c>
       <c r="E36" t="n">
-        <v>1241.45378755571</v>
+        <v>1153.88523451143</v>
       </c>
       <c r="F36" t="n">
-        <v>1480.79970803202</v>
+        <v>1365.27365478514</v>
       </c>
       <c r="G36" s="1" t="n">
         <v>45748</v>
@@ -1742,19 +1742,19 @@
         <v>45778</v>
       </c>
       <c r="B37" t="n">
-        <v>1039.77554987599</v>
+        <v>1016.35502216954</v>
       </c>
       <c r="C37" t="n">
-        <v>587.394879909099</v>
+        <v>616.905764235572</v>
       </c>
       <c r="D37" t="n">
-        <v>347.919018874507</v>
+        <v>405.450100158754</v>
       </c>
       <c r="E37" t="n">
-        <v>1492.15621984288</v>
+        <v>1415.8042801035</v>
       </c>
       <c r="F37" t="n">
-        <v>1731.63208087747</v>
+        <v>1627.25994418032</v>
       </c>
       <c r="G37" s="1" t="n">
         <v>45778</v>
